--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C2" t="n">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="D4" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D6" t="n">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="n">
         <v>6.8</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C9" t="n">
         <v>6.4</v>
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D10" t="n">
         <v>14.6</v>
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.2</v>
+        <v>29.4</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7</v>
+        <v>16.1</v>
       </c>
       <c r="D11" t="n">
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>2.3</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C2" t="n">
         <v>10.8</v>
@@ -484,7 +484,7 @@
         <v>9.9</v>
       </c>
       <c r="D3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="D4" t="n">
         <v>6.2</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>9.800000000000001</v>
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D6" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -577,7 +577,7 @@
         <v>5.3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D9" t="n">
         <v>5.8</v>
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C10" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C11" t="n">
         <v>16.1</v>
       </c>
       <c r="D11" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="12">
@@ -625,7 +625,7 @@
         <v>2.3</v>
       </c>
       <c r="C12" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D12" t="n">
         <v>2.1</v>

--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C11" t="n">
         <v>16.1</v>

--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -458,97 +458,97 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="C3" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.7</v>
+        <v>7.7</v>
       </c>
       <c r="C6" t="n">
-        <v>11.8</v>
+        <v>8.6</v>
       </c>
       <c r="D6" t="n">
-        <v>16.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>1.4</v>
+        <v>12.8</v>
       </c>
       <c r="D7" t="n">
-        <v>3.7</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C8" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="C9" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="10">
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>14.5</v>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.5</v>
+        <v>38.4</v>
       </c>
       <c r="C11" t="n">
-        <v>16.1</v>
+        <v>24.9</v>
       </c>
       <c r="D11" t="n">
         <v>23.8</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="C12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>2.1</v>

--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -458,177 +458,177 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.9</v>
+        <v>7.7</v>
       </c>
       <c r="C3" t="n">
-        <v>6.2</v>
+        <v>12.1</v>
       </c>
       <c r="D3" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.1</v>
+        <v>7.3</v>
       </c>
       <c r="D4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5" t="n">
-        <v>9.199999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.7</v>
+        <v>9.9</v>
       </c>
       <c r="C6" t="n">
-        <v>8.6</v>
+        <v>12.8</v>
       </c>
       <c r="D6" t="n">
-        <v>9.9</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.8</v>
+        <v>4.8</v>
       </c>
       <c r="D7" t="n">
-        <v>15.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.8</v>
+        <v>11.8</v>
       </c>
       <c r="C9" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>5.7</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Respiratory</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.3</v>
+        <v>38.9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.800000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="D10" t="n">
-        <v>14.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Respiratory</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.4</v>
+        <v>2.2</v>
       </c>
       <c r="C11" t="n">
-        <v>24.9</v>
+        <v>2.9</v>
       </c>
       <c r="D11" t="n">
-        <v>23.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D12" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.7</v>
+        <v>11.8</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>6.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>6.1</v>
       </c>
       <c r="C4" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="C6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D6" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="7">
@@ -542,29 +542,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="C7" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="C8" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="D8" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="C9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -458,113 +458,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="C2" t="n">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="n">
-        <v>10.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.1</v>
+        <v>16.4</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5</v>
+        <v>22.7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="C5" t="n">
-        <v>11.2</v>
+        <v>6.2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.4</v>
+        <v>6.3</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="C7" t="n">
-        <v>4.1</v>
+        <v>10.6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="C8" t="n">
         <v>2.9</v>
       </c>
       <c r="D8" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="C9" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.6</v>
+        <v>41.6</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>34.7</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
+++ b/Symptom_Composition_by_ABG_VBG_Overlap.xlsx
@@ -458,113 +458,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5</v>
+        <v>7.3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>12.7</v>
       </c>
       <c r="C3" t="n">
-        <v>7.5</v>
+        <v>18.1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.4</v>
+        <v>6.1</v>
       </c>
       <c r="C4" t="n">
-        <v>22.7</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="n">
-        <v>10.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="C5" t="n">
-        <v>6.2</v>
+        <v>11.1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.3</v>
+        <v>9.9</v>
       </c>
       <c r="C6" t="n">
-        <v>6.5</v>
+        <v>12.7</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.3</v>
+        <v>4.1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>9.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2.9</v>
       </c>
       <c r="D8" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="C9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D9" t="n">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.6</v>
+        <v>38.3</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>21.2</v>
       </c>
       <c r="D10" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="C12" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
